--- a/result2.xlsx
+++ b/result2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="27">
   <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,92 +55,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>牛熊市（1：牛，0：震荡市，-1：熊）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经历几个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000127.OF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农银汇理行业领先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fund setup date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bull_bear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundmanagers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐莉(20130625-20150612)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵谦(20150606-20160308)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张峰(20150917至今)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>平均排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000001.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛熊市（1：牛，0：震荡市，-1：熊）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bull_bear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经历几个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundmanagers</t>
-  </si>
-  <si>
-    <t>王亚伟(20011218-20050412)</t>
-  </si>
-  <si>
-    <t>田擎(20040227-20051029)</t>
-  </si>
-  <si>
-    <t>巩怀志(20051029-20100116)</t>
-  </si>
-  <si>
-    <t>童汀(20100116-20140620)</t>
-  </si>
-  <si>
-    <t>孙振峰(20120405-20130628)</t>
-  </si>
-  <si>
-    <t>倪邈(20140317-20151119)</t>
-  </si>
-  <si>
-    <t>李铧汶(20140317-20170113)</t>
-  </si>
-  <si>
-    <t>崔同魁(20140620-20150107)</t>
-  </si>
-  <si>
-    <t>董阳阳(20150107至今)</t>
-  </si>
-  <si>
-    <t>许利明(20150901-20170328)</t>
-  </si>
-  <si>
-    <t>孙萌(20151119-20170224)</t>
   </si>
 </sst>
 </file>
@@ -666,284 +658,1180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.73046875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="25.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.75" style="11" customWidth="1"/>
+    <col min="9" max="9" width="25.75" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="12">
-        <v>37243</v>
+        <v>41450</v>
       </c>
       <c r="D2" s="12">
-        <v>40364</v>
+        <v>41452</v>
       </c>
       <c r="E2" s="11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F2" s="11">
-        <v>82</v>
-      </c>
-      <c r="G2" s="11">
-        <v>60.741885625965999</v>
-      </c>
-      <c r="H2" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="I2" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C3" s="12"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="12">
-        <v>40490</v>
+        <v>41452</v>
       </c>
       <c r="E3" s="11">
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="G3" s="11">
-        <v>17.052023121387283</v>
+        <v>81.060606060606062</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C4" s="12"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="12">
-        <v>40646</v>
+        <v>41718</v>
       </c>
       <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>298</v>
+      </c>
+      <c r="G4" s="11">
+        <v>23.906871095968199</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="12">
+        <v>42163</v>
+      </c>
+      <c r="E5" s="11">
         <v>-1</v>
       </c>
-      <c r="F4" s="11">
-        <v>181</v>
-      </c>
-      <c r="G4" s="11">
-        <v>79.797979797979792</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12">
-        <v>40913</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
       <c r="F5" s="11">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G5" s="11">
-        <v>38.607594936708864</v>
+        <v>86.631016042780743</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C6" s="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="12">
-        <v>41036</v>
+        <v>42242</v>
       </c>
       <c r="E6" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="11">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="G6" s="11">
-        <v>50.148075024679173</v>
+        <v>0.82616179001721168</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C7" s="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="D7" s="12">
-        <v>41246</v>
+        <v>42397</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="11">
-        <v>44</v>
+        <v>486</v>
       </c>
       <c r="G7" s="11">
-        <v>37.416107382550337</v>
+        <v>5.4664289958407606</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="12">
-        <v>41311</v>
+        <v>43124</v>
       </c>
       <c r="E8" s="11">
         <v>-1</v>
       </c>
       <c r="F8" s="11">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G8" s="11">
-        <v>58.339798293250581</v>
+        <v>62.13776722090261</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="12">
-        <v>41452</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>177</v>
-      </c>
-      <c r="G9" s="11">
-        <v>28.030303030303031</v>
+        <v>43292</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D10" s="12">
-        <v>41718</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11">
-        <v>298</v>
-      </c>
-      <c r="G10" s="11">
-        <v>38.330494037478708</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D11" s="12">
-        <v>42163</v>
-      </c>
-      <c r="E11" s="11">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="11">
-        <v>56</v>
-      </c>
-      <c r="G11" s="11">
-        <v>67.914438502673804</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D12" s="12">
-        <v>42242</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>103</v>
-      </c>
-      <c r="G12" s="11">
-        <v>93.115318416523237</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D13" s="12">
-        <v>42397</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11">
-        <v>486</v>
-      </c>
-      <c r="G13" s="11">
-        <v>39.839572192513366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D14" s="12">
-        <v>43124</v>
-      </c>
-      <c r="E14" s="11">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="11">
-        <v>68</v>
-      </c>
-      <c r="G14" s="11">
-        <v>68.276845106113399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D15" s="12">
-        <v>43231</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -957,85 +1845,82 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" customWidth="1"/>
-    <col min="7" max="7" width="4.19921875" customWidth="1"/>
-    <col min="8" max="10" width="9.06640625" style="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="4.25" customWidth="1"/>
+    <col min="8" max="10" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>987</v>
+        <v>784</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>40.916360146928234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>12.475678671654507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>384</v>
+        <v>280</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>42.51471832783804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>51.545792632496592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1</v>
       </c>
       <c r="B4">
-        <v>537</v>
+        <v>166</v>
       </c>
       <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>65.632576201414594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="3" t="str">
         <f>IF(D4&lt;=33,ROUND(D4,2)&amp;"%","")</f>
-        <v/>
+        <v>0%</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>IF(D3&lt;=33,ROUND(D3,2)&amp;"%","")</f>
@@ -1043,27 +1928,27 @@
       </c>
       <c r="J7" s="2" t="str">
         <f>IF(D2&lt;=33,ROUND(D2,2)&amp;"%","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>12.48%</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="5" t="str">
         <f>IF(AND(D4&gt;=33,D4&lt;=66),ROUND(D4,2)&amp;"%","")</f>
-        <v>65.63%</v>
+        <v/>
       </c>
       <c r="I8" s="6" t="str">
         <f>IF(AND(D3&gt;=33,D3&lt;=66),ROUND(D3,2)&amp;"%","")</f>
-        <v>42.51%</v>
+        <v>51.55%</v>
       </c>
       <c r="J8" s="7" t="str">
         <f>IF(AND(D2&gt;=33,D2&lt;=66),ROUND(D2,2)&amp;"%","")</f>
-        <v>40.92%</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>2</v>
       </c>
@@ -1080,7 +1965,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>

--- a/result2.xlsx
+++ b/result2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="28">
   <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,19 +55,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>平均排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000727.OF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融通健康产业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fund setup date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平均排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000001.OF</t>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bull_bear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -75,7 +111,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fundcode</t>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundmanagers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋秀蕾(20141225-20160902)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万民远(20160826至今)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,64 +131,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华夏成长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bull_bear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>经历几个</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundmanagers</t>
-  </si>
-  <si>
-    <t>王亚伟(20011218-20050412)</t>
-  </si>
-  <si>
-    <t>田擎(20040227-20051029)</t>
-  </si>
-  <si>
-    <t>巩怀志(20051029-20100116)</t>
-  </si>
-  <si>
-    <t>童汀(20100116-20140620)</t>
-  </si>
-  <si>
-    <t>孙振峰(20120405-20130628)</t>
-  </si>
-  <si>
-    <t>倪邈(20140317-20151119)</t>
-  </si>
-  <si>
-    <t>李铧汶(20140317-20170113)</t>
-  </si>
-  <si>
-    <t>崔同魁(20140620-20150107)</t>
-  </si>
-  <si>
-    <t>董阳阳(20150107至今)</t>
-  </si>
-  <si>
-    <t>许利明(20150901-20170328)</t>
-  </si>
-  <si>
-    <t>孙萌(20151119-20170224)</t>
   </si>
 </sst>
 </file>
@@ -666,284 +662,1183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.73046875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="25.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.75" style="11" customWidth="1"/>
+    <col min="9" max="9" width="25.75" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="I1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="12">
-        <v>37243</v>
+        <v>41998</v>
       </c>
       <c r="D2" s="12">
-        <v>40364</v>
+        <v>41999</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
       </c>
       <c r="F2" s="11">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="G2" s="11">
-        <v>60.741885625965999</v>
-      </c>
-      <c r="H2" s="13"/>
+        <v>35.087719298245617</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="I2" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C3" s="12"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="12">
-        <v>40490</v>
+        <v>42163</v>
       </c>
       <c r="E3" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>56</v>
+      </c>
+      <c r="G3" s="11">
+        <v>93.835616438356169</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12">
+        <v>42242</v>
+      </c>
+      <c r="E4" s="11">
         <v>0</v>
       </c>
-      <c r="F3" s="11">
-        <v>104</v>
-      </c>
-      <c r="G3" s="11">
-        <v>17.052023121387283</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C4" s="12"/>
-      <c r="D4" s="12">
-        <v>40646</v>
-      </c>
-      <c r="E4" s="11">
-        <v>-1</v>
-      </c>
       <c r="F4" s="11">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="G4" s="11">
-        <v>79.797979797979792</v>
+        <v>23.885918003565063</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C5" s="12"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="12">
-        <v>40913</v>
+        <v>42397</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="11">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="G5" s="11">
-        <v>38.607594936708864</v>
+        <v>92.99363057324841</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C6" s="12"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="12">
-        <v>41036</v>
+        <v>43124</v>
       </c>
       <c r="E6" s="11">
         <v>-1</v>
       </c>
       <c r="F6" s="11">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="G6" s="11">
-        <v>50.148075024679173</v>
+        <v>7.1592210767468503</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C7" s="12"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="12">
-        <v>41246</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>44</v>
-      </c>
-      <c r="G7" s="11">
-        <v>37.416107382550337</v>
+        <v>43292</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D8" s="12">
-        <v>41311</v>
-      </c>
-      <c r="E8" s="11">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="11">
-        <v>88</v>
-      </c>
-      <c r="G8" s="11">
-        <v>58.339798293250581</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D9" s="12">
-        <v>41452</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>177</v>
-      </c>
-      <c r="G9" s="11">
-        <v>28.030303030303031</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D10" s="12">
-        <v>41718</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11">
-        <v>298</v>
-      </c>
-      <c r="G10" s="11">
-        <v>38.330494037478708</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D11" s="12">
-        <v>42163</v>
-      </c>
-      <c r="E11" s="11">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="11">
-        <v>56</v>
-      </c>
-      <c r="G11" s="11">
-        <v>67.914438502673804</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D12" s="12">
-        <v>42242</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>103</v>
-      </c>
-      <c r="G12" s="11">
-        <v>93.115318416523237</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D13" s="12">
-        <v>42397</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11">
-        <v>486</v>
-      </c>
-      <c r="G13" s="11">
-        <v>39.839572192513366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D14" s="12">
-        <v>43124</v>
-      </c>
-      <c r="E14" s="11">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="11">
-        <v>68</v>
-      </c>
-      <c r="G14" s="11">
-        <v>68.276845106113399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D15" s="12">
-        <v>43231</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -957,79 +1852,79 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" customWidth="1"/>
-    <col min="7" max="7" width="4.19921875" customWidth="1"/>
-    <col min="8" max="10" width="9.06640625" style="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="4.25" customWidth="1"/>
+    <col min="8" max="10" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>987</v>
+        <v>593</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>40.916360146928234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>82.545177779951118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>384</v>
+        <v>103</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>42.51471832783804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>23.885918003565063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-1</v>
       </c>
       <c r="B4">
-        <v>537</v>
+        <v>166</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>65.632576201414594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>36.399450837289749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>0</v>
       </c>
@@ -1039,31 +1934,31 @@
       </c>
       <c r="I7" s="4" t="str">
         <f>IF(D3&lt;=33,ROUND(D3,2)&amp;"%","")</f>
-        <v/>
+        <v>23.89%</v>
       </c>
       <c r="J7" s="2" t="str">
         <f>IF(D2&lt;=33,ROUND(D2,2)&amp;"%","")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="5" t="str">
         <f>IF(AND(D4&gt;=33,D4&lt;=66),ROUND(D4,2)&amp;"%","")</f>
-        <v>65.63%</v>
+        <v>36.4%</v>
       </c>
       <c r="I8" s="6" t="str">
         <f>IF(AND(D3&gt;=33,D3&lt;=66),ROUND(D3,2)&amp;"%","")</f>
-        <v>42.51%</v>
+        <v/>
       </c>
       <c r="J8" s="7" t="str">
         <f>IF(AND(D2&gt;=33,D2&lt;=66),ROUND(D2,2)&amp;"%","")</f>
-        <v>40.92%</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>2</v>
       </c>
@@ -1077,10 +1972,10 @@
       </c>
       <c r="J9" s="10" t="str">
         <f>IF(D2&gt;=66,ROUND(D2,2)&amp;"%","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>82.55%</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H10" s="1" t="s">
         <v>3</v>
       </c>
